--- a/medicine/Sexualité et sexologie/Je_suis_une_nymphomane/Je_suis_une_nymphomane.xlsx
+++ b/medicine/Sexualité et sexologie/Je_suis_une_nymphomane/Je_suis_une_nymphomane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Je suis une nymphomane[1], est un film français de Max Pécas tourné en 1970 et sorti en 1971.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Je suis une nymphomane, est un film français de Max Pécas tourné en 1970 et sorti en 1971.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir été blessée dans un accident d'ascenseur, une jeune femme devient nymphomane et multiplie les aventures sexuelles.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Je suis une nymphomane
 Autres titres connus
@@ -572,7 +588,7 @@
 Japon : 28 août 1971
 États-Unis : 23 mars 1972
 Finlande : 23 décembre 1977
-Interdiction aux moins de 18 ans à sa sortie en salles en France[2].</t>
+Interdiction aux moins de 18 ans à sa sortie en salles en France.</t>
         </is>
       </c>
     </row>
@@ -600,7 +616,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sandra Julien : Doris
 Janine Reynaud : Murielle
@@ -643,9 +661,11 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le film contient une scène érotique saphique entre Sandra Julien et Janine Reynaud[3].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le film contient une scène érotique saphique entre Sandra Julien et Janine Reynaud.</t>
         </is>
       </c>
     </row>
